--- a/data/HR1_2/A_BJ_35_2/A_BJ_35_2_2020.xlsx
+++ b/data/HR1_2/A_BJ_35_2/A_BJ_35_2_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_BJ_35_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_BJ_35_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BF244C-A5BA-4561-AEDA-1C10C685D6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92465AC0-BA86-4D3C-8C63-2C549E8DFA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -5880,8 +5880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEEFF66-812B-4A62-A958-597678292A9C}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" activeCellId="1" sqref="A2:XFD2 A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12992,8 +12992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B72A64-5D55-439D-A1D6-333C69B60397}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" activeCellId="1" sqref="A2:XFD2 A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
